--- a/main/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/main/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-update-request-bundle.xlsx
+++ b/main/StructureDefinition-bc-update-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
